--- a/REVER_DailyTracker_20200724.xlsx
+++ b/REVER_DailyTracker_20200724.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29990C21-9D9F-48E5-9643-033EEC46461E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDD3BB3-CF6E-4662-8E1E-C3FBCAAFFC85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="94">
   <si>
     <t>Task</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>2. Preparations for the Training</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Active Report issue</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +395,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -467,10 +481,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -509,9 +526,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{B68AAF76-A945-42BB-8C01-91FBD24ABDB7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,22 +848,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A178" workbookViewId="0">
       <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -862,7 +884,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -872,8 +894,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -885,7 +907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -896,10 +918,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -913,9 +935,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -929,9 +951,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -945,8 +967,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -963,19 +985,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -993,13 +1015,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1013,7 +1035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +1049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1035,7 +1057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1043,12 +1065,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1056,7 +1078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1067,7 +1089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1078,7 +1100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1089,12 +1111,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1116,12 +1138,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1129,7 +1151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1137,7 +1159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1145,7 +1167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1153,12 +1175,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1166,7 +1188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1174,7 +1196,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1182,7 +1204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1190,12 +1212,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1203,7 +1225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1211,7 +1233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +1241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1227,7 +1249,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1235,12 +1257,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +1270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1256,7 +1278,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1272,7 +1294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1280,12 +1302,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1301,7 +1323,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1317,7 +1339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1325,7 +1347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1333,7 +1355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1341,12 +1363,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1376,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1362,12 +1384,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1375,22 +1397,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1398,7 +1420,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1406,7 +1428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1414,7 +1436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1422,12 +1444,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1443,7 +1465,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1451,17 +1473,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1477,7 +1499,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
@@ -1497,18 +1519,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1540,7 +1562,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1549,46 +1571,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1605,22 +1627,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1643,16 +1665,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44036</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1661,46 +1691,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1721,18 +1751,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1755,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1764,7 +1794,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1773,46 +1803,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1833,18 +1863,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1867,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1876,7 +1906,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1885,46 +1915,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1945,18 +1975,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1979,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2000,7 +2030,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2009,46 +2039,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2069,18 +2099,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2103,7 +2133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2112,7 +2142,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2121,46 +2151,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2181,18 +2211,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2215,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2224,7 +2254,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2233,46 +2263,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2293,18 +2323,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2327,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2336,7 +2366,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2345,46 +2375,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2405,18 +2435,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2448,7 +2478,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2457,46 +2487,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200724.xlsx
+++ b/REVER_DailyTracker_20200724.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDD3BB3-CF6E-4662-8E1E-C3FBCAAFFC85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9E12A9-C019-44D6-B1E4-32EDF65CEE2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="96">
   <si>
     <t>Task</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>Active Report issue</t>
+  </si>
+  <si>
+    <t>Hayaai APP</t>
+  </si>
+  <si>
+    <t>Data correction</t>
   </si>
 </sst>
 </file>
@@ -852,15 +858,15 @@
       <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -895,7 +901,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -921,7 +927,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -953,7 +959,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1212,12 +1218,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1339,7 +1345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="30">
+    <row r="168" spans="4:7" ht="28.8">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="45">
+    <row r="181" spans="4:7" ht="28.8">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1519,15 +1525,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1627,19 +1633,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1751,15 +1757,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1859,19 +1865,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1900,9 +1906,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.5</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1975,15 +1987,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2099,15 +2111,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2211,15 +2223,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2323,15 +2335,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2435,15 +2447,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
